--- a/inst/extdata/soil_lookup.xlsx
+++ b/inst/extdata/soil_lookup.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Texture EN</t>
   </si>
@@ -83,16 +83,13 @@
     <t xml:space="preserve">SL5</t>
   </si>
   <si>
-    <t xml:space="preserve">ORG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORG3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORG4</t>
+    <t xml:space="preserve">Tn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpl</t>
   </si>
   <si>
     <t xml:space="preserve">Humus</t>
@@ -321,48 +318,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -379,315 +380,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>31.9883333333333</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>42.8816666666667</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>25.13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>52.3246428571429</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>29.4485714285714</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>18.2267857142857</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>87.205</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>10.33</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>2.465</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>80.7141176470588</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>14.8405882352941</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>4.44529411764706</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>75.81</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>20.2633333333333</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>3.92666666666667</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>95.3925</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>3.457</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>1.1505</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>91.15</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>6.88</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>1.97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>87.31</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>10.0364285714286</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>2.65357142857143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>18.015</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>46.855</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>35.13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>46.60875</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>34.71875</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>18.6725</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>46.89</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>14.11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>74.5211111111111</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>19.615</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>5.86388888888889</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>71.7466666666667</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>22.1427777777778</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>6.11055555555556</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>62.54046875</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>25.393125</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>12.06640625</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>60.4665625</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2" t="n">
         <v>27.8421875</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>11.69125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>40</v>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>40</v>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
+      <c r="B20" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -700,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -712,133 +700,133 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="7" t="n">
         <v>3.24</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>1.62</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="8" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="7" t="n">
         <v>2.81</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>1.4</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="8" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="7" t="n">
         <v>2.16</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>1.08</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="8" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="7" t="n">
         <v>1.43</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <v>0.71</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="8" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="7" t="n">
         <v>1.08</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="8" t="n">
         <v>0.54</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="8" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="11" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="11" t="n">
         <v>7.5</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="11" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="11" t="n">
         <v>1</v>
       </c>
     </row>
